--- a/docs/data_dictionary.xlsx
+++ b/docs/data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaodanxu/Documents/GitHub/SynthFirm/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF0BB3-4760-9446-94C6-C90416A5E60B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D180B06-80BB-7543-9C1D-83D37F1AEBD2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="16900" activeTab="2" xr2:uid="{869DE7BA-A489-2A43-AFDD-1E9A0E42D861}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="14580" activeTab="3" xr2:uid="{869DE7BA-A489-2A43-AFDD-1E9A0E42D861}"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic_firms_with_location" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="supplier_selection" sheetId="4" r:id="rId4"/>
     <sheet name="b2b_flow" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="111">
   <si>
     <t>Variable</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>$/lb</t>
+  </si>
+  <si>
+    <t>Coming from 'Emp' from synthetic firms</t>
   </si>
 </sst>
 </file>
@@ -514,15 +517,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -544,16 +538,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,7 +879,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,40 +929,40 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1061,7 +1064,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,105 +1072,107 @@
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1178,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B3E3F-7409-464D-A6C4-A0736516CF85}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1192,122 +1197,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1318,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD648274-284F-D147-A0A0-EE4D90BAA446}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,134 +1337,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1469,267 +1476,267 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D2:D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="14"/>
-    <col min="4" max="4" width="50.6640625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="22.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="11"/>
+    <col min="4" max="4" width="50.6640625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
